--- a/file/gqkt/course_resource/question_bank/question.xlsx
+++ b/file/gqkt/course_resource/question_bank/question.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17100"/>
+    <workbookView windowHeight="23840"/>
   </bookViews>
   <sheets>
     <sheet name="题目导入模板" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>题型</t>
   </si>
@@ -89,55 +89,46 @@
     <t>单选题</t>
   </si>
   <si>
-    <t>&lt;p&gt;中国的首都是哪里？&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>首都题目</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>上海</t>
-  </si>
-  <si>
-    <t>北京</t>
-  </si>
-  <si>
-    <t>广东</t>
-  </si>
-  <si>
-    <t>深圳</t>
+    <t>• 程序先通过 scanf 从键盘读取两个整数 a 和 b；利用算术运算符计算和（+）、差（-）、积（*）、商（/）；加入 if 判断避免除数为 0 的错误（C 语言中除数为 0 会导致运行时错误）；最后通过 printf 输出结果，逻辑清晰，符合基础编程要求。</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>123abc</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>_student</t>
+  </si>
+  <si>
+    <t>a-b</t>
   </si>
   <si>
     <t>多选题</t>
   </si>
   <si>
-    <t>&lt;p&gt;以下哪些是编程语言？&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>编程语言题目</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>Python</t>
-  </si>
-  <si>
-    <t>HTML</t>
-  </si>
-  <si>
-    <t>CSS</t>
-  </si>
-  <si>
-    <t>JavaScript</t>
+    <t>以下属于 C 语言基本数据类型的有（  ）</t>
+  </si>
+  <si>
+    <t>ABCDE</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>struct</t>
+  </si>
+  <si>
+    <t>double</t>
   </si>
   <si>
     <t>判断题</t>
   </si>
   <si>
-    <t>&lt;p&gt;地球是圆的。&lt;/p&gt;</t>
+    <t>C 语言中，“if (a = 5)” 与 “if (a == 5)” 的含义相同。（  ）</t>
   </si>
   <si>
     <t>错误</t>
@@ -146,28 +137,7 @@
     <t>正确</t>
   </si>
   <si>
-    <t>填空题</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;人工智能的英文缩写是【填空1】，它起源于【填空2】年。&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;考查对AI基础知识的掌握。&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>[AI/Artificial Intelligence]、[1956]</t>
-  </si>
-  <si>
-    <t>主观题</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;请简述人工智能的发展历程。&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;考查对AI发展历史的理解。&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;人工智能的发展历程可以分为以下几个阶段：1. 萌芽期(1950s)；2. 发展期(1960s-1970s)；3. 低谷期(1980s)；4. 复兴期(1990s)；5. 繁荣期(2000s至今)。&lt;/p&gt;</t>
+    <t>定义 “int *p;” 后，p 是一个指针变量，专门用来存储地址。（  ）</t>
   </si>
 </sst>
 </file>
@@ -783,8 +753,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1320,213 +1293,198 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="10.3846153846154" style="1"/>
+    <col min="2" max="2" width="103.201923076923" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.3846153846154" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:19">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:19">
+      <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="1">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:19">
+      <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3">
+    <row r="4" s="1" customFormat="1" spans="1:19">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="1">
         <v>2</v>
       </c>
-      <c r="E3">
+      <c r="I4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:19">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="1">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="I5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
